--- a/SuppXLS/Scen_INF_Demand.xlsx
+++ b/SuppXLS/Scen_INF_Demand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20667C7-14D1-4E6D-851F-D4134F31671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD3FF0A-01AB-4C02-90C7-DC85C7A2C7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEM_Especifica" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -730,15 +730,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -750,9 +741,16 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AE288"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209:C240"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,45 +2407,45 @@
       <c r="B39" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="80" t="s">
+      <c r="C39" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="80" t="s">
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="82"/>
-      <c r="J39" s="80" t="s">
+      <c r="I39" s="90"/>
+      <c r="J39" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="82"/>
-      <c r="L39" s="80" t="s">
+      <c r="K39" s="90"/>
+      <c r="L39" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="M39" s="81"/>
-      <c r="N39" s="81"/>
-      <c r="O39" s="81"/>
-      <c r="P39" s="81"/>
-      <c r="Q39" s="81"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="81"/>
-      <c r="T39" s="81"/>
-      <c r="U39" s="82"/>
-      <c r="V39" s="80" t="s">
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="89"/>
+      <c r="S39" s="89"/>
+      <c r="T39" s="89"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="W39" s="81"/>
-      <c r="X39" s="81"/>
-      <c r="Y39" s="81"/>
-      <c r="Z39" s="81"/>
-      <c r="AA39" s="81"/>
-      <c r="AB39" s="81"/>
-      <c r="AC39" s="81"/>
-      <c r="AD39" s="81"/>
-      <c r="AE39" s="82"/>
+      <c r="W39" s="89"/>
+      <c r="X39" s="89"/>
+      <c r="Y39" s="89"/>
+      <c r="Z39" s="89"/>
+      <c r="AA39" s="89"/>
+      <c r="AB39" s="89"/>
+      <c r="AC39" s="89"/>
+      <c r="AD39" s="89"/>
+      <c r="AE39" s="90"/>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
@@ -10037,8 +10035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429C857E-7E9C-40EC-8492-D79139CDAA51}">
   <dimension ref="B3:P54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54:O54"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10048,40 +10046,40 @@
         <v>60</v>
       </c>
       <c r="D3" s="68"/>
-      <c r="E3" s="83"/>
+      <c r="E3" s="80"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="82">
         <v>2019</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="82">
         <v>2020</v>
       </c>
-      <c r="G4" s="85">
+      <c r="G4" s="82">
         <v>2025</v>
       </c>
-      <c r="H4" s="85">
+      <c r="H4" s="82">
         <v>2030</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="82">
         <v>2035</v>
       </c>
-      <c r="J4" s="85">
+      <c r="J4" s="82">
         <v>2040</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="82">
         <v>2045</v>
       </c>
-      <c r="L4" s="85">
+      <c r="L4" s="82">
         <v>2050</v>
       </c>
     </row>
@@ -10127,67 +10125,67 @@
       <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="80" t="s">
         <v>58</v>
       </c>
       <c r="E6">
-        <v>62.181400000000004</v>
+        <v>62.181399999999996</v>
       </c>
       <c r="F6">
-        <v>55.311800000000005</v>
+        <v>55.42</v>
       </c>
       <c r="G6">
-        <v>54.0672</v>
+        <v>58.573599999999999</v>
       </c>
       <c r="H6">
-        <v>44.946800000000003</v>
+        <v>55.663899999999998</v>
       </c>
       <c r="I6">
-        <v>50.264299999999999</v>
+        <v>54.030799999999999</v>
       </c>
       <c r="J6">
-        <v>60.496299999999998</v>
+        <v>60.668600000000005</v>
       </c>
       <c r="K6">
-        <v>72.998800000000003</v>
+        <v>73.020099999999999</v>
       </c>
       <c r="L6">
-        <v>88.119699999999995</v>
+        <v>88.122200000000007</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="80" t="s">
         <v>58</v>
       </c>
       <c r="E7">
         <v>69.341300000000004</v>
       </c>
       <c r="F7">
-        <v>69.898099999999999</v>
+        <v>70.399799999999999</v>
       </c>
       <c r="G7">
-        <v>63.788799999999995</v>
+        <v>72.347100000000012</v>
       </c>
       <c r="H7">
-        <v>38.0062</v>
+        <v>60.032299999999999</v>
       </c>
       <c r="I7">
-        <v>18.564700000000002</v>
+        <v>40.972300000000004</v>
       </c>
       <c r="J7">
-        <v>7.9062000000000001</v>
+        <v>26.482499999999998</v>
       </c>
       <c r="K7">
-        <v>7.9055999999999997</v>
+        <v>15.279199999999999</v>
       </c>
       <c r="L7">
-        <v>7.4988999999999999</v>
+        <v>7.4989999999999997</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -10197,32 +10195,32 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="80" t="s">
         <v>58</v>
       </c>
       <c r="E8">
         <v>105.9659</v>
       </c>
       <c r="F8">
-        <v>98.619399999999999</v>
+        <v>98.641600000000011</v>
       </c>
       <c r="G8">
-        <v>114.10899999999999</v>
+        <v>109.53559999999999</v>
       </c>
       <c r="H8">
-        <v>131.82839999999999</v>
+        <v>115.2475</v>
       </c>
       <c r="I8">
-        <v>147.7099</v>
+        <v>122.26180000000001</v>
       </c>
       <c r="J8">
-        <v>169.75069999999999</v>
+        <v>136.90830000000003</v>
       </c>
       <c r="K8">
-        <v>189.20880000000002</v>
+        <v>158.66909999999996</v>
       </c>
       <c r="L8">
-        <v>212.33340000000004</v>
+        <v>185.6712</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -10232,32 +10230,32 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="80" t="s">
         <v>58</v>
       </c>
       <c r="E9">
         <v>574.73889999999994</v>
       </c>
       <c r="F9">
-        <v>577.35809999999992</v>
+        <v>577.1468000000001</v>
       </c>
       <c r="G9">
-        <v>605.93169999999998</v>
+        <v>648.25800000000004</v>
       </c>
       <c r="H9">
-        <v>601.9633</v>
+        <v>691.68829999999991</v>
       </c>
       <c r="I9">
-        <v>587.77409999999998</v>
+        <v>700.2876</v>
       </c>
       <c r="J9">
-        <v>578.48169999999993</v>
+        <v>696.71199999999999</v>
       </c>
       <c r="K9">
-        <v>569.94369999999992</v>
+        <v>689.51819999999998</v>
       </c>
       <c r="L9">
-        <v>572.8922</v>
+        <v>693.02160000000003</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
@@ -10266,211 +10264,163 @@
       </c>
     </row>
     <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="86" t="s">
+      <c r="F14" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="87" t="s">
+      <c r="G14" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="87" t="s">
+      <c r="H14" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="88" t="s">
+      <c r="I14" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="88" t="s">
+      <c r="J14" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="88" t="s">
+      <c r="K14" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="L14" s="88" t="s">
+      <c r="L14" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="M14" s="88" t="s">
+      <c r="M14" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="88" t="s">
+      <c r="N14" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="88" t="s">
+      <c r="O14" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="88" t="s">
+      <c r="P14" s="85" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="89" t="s">
+      <c r="D15" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="89" cm="1">
+      <c r="E15" s="86" cm="1">
         <f t="array" ref="E15:E22">+TRANSPOSE(E4:L4)</f>
         <v>2019</v>
       </c>
-      <c r="F15" s="89"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89" cm="1">
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86" cm="1">
         <f t="array" ref="H15:H22">+TRANSPOSE(E5:L5)</f>
         <v>31.6646</v>
       </c>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89" t="str">
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86" t="str">
         <f>+$C$5</f>
         <v>DAGR</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="90" t="s">
+      <c r="D16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16">
         <v>2020</v>
       </c>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90">
+      <c r="H16">
         <v>30.188499999999998</v>
       </c>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90" t="str">
+      <c r="O16" t="str">
         <f t="shared" ref="O16:O22" si="0">+$C$5</f>
         <v>DAGR</v>
       </c>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D17" s="90" t="s">
+      <c r="D17" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17">
         <v>2025</v>
       </c>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90">
+      <c r="H17">
         <v>37.356999999999999</v>
       </c>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90" t="str">
+      <c r="O17" t="str">
         <f t="shared" si="0"/>
         <v>DAGR</v>
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="90" t="s">
+      <c r="D18" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18">
         <v>2030</v>
       </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90">
+      <c r="H18">
         <v>44.712199999999996</v>
       </c>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90" t="str">
+      <c r="O18" t="str">
         <f t="shared" si="0"/>
         <v>DAGR</v>
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" s="90" t="s">
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19">
         <v>2035</v>
       </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90">
+      <c r="H19">
         <v>53.566800000000001</v>
       </c>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90" t="str">
+      <c r="O19" t="str">
         <f t="shared" si="0"/>
         <v>DAGR</v>
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" s="90" t="s">
+      <c r="D20" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20">
         <v>2040</v>
       </c>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90">
+      <c r="H20">
         <v>64.202399999999997</v>
       </c>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90" t="str">
+      <c r="O20" t="str">
         <f t="shared" si="0"/>
         <v>DAGR</v>
       </c>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D21" s="90" t="s">
+      <c r="D21" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="90">
+      <c r="E21">
         <v>2045</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90">
+      <c r="H21">
         <v>76.975400000000008</v>
       </c>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90" t="str">
+      <c r="O21" t="str">
         <f t="shared" si="0"/>
         <v>DAGR</v>
       </c>
@@ -10499,163 +10449,115 @@
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="91">
+      <c r="E23" s="87">
         <v>2019</v>
       </c>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91" cm="1">
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87" cm="1">
         <f t="array" ref="H23:H30">+TRANSPOSE(E6:L6)</f>
-        <v>62.181400000000004</v>
-      </c>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91" t="str">
+        <v>62.181399999999996</v>
+      </c>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87" t="str">
         <f t="shared" ref="O23:O30" si="1">+$C$6</f>
         <v>DTER</v>
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="90" t="s">
+      <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="90">
+      <c r="E24">
         <v>2020</v>
       </c>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90">
-        <v>55.311800000000005</v>
-      </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90" t="str">
+      <c r="H24">
+        <v>55.42</v>
+      </c>
+      <c r="O24" t="str">
         <f t="shared" si="1"/>
         <v>DTER</v>
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" s="90" t="s">
+      <c r="D25" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25">
         <v>2025</v>
       </c>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90">
-        <v>54.0672</v>
-      </c>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90" t="str">
+      <c r="H25">
+        <v>58.573599999999999</v>
+      </c>
+      <c r="O25" t="str">
         <f t="shared" si="1"/>
         <v>DTER</v>
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" s="90" t="s">
+      <c r="D26" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="90">
+      <c r="E26">
         <v>2030</v>
       </c>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90">
-        <v>44.946800000000003</v>
-      </c>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90" t="str">
+      <c r="H26">
+        <v>55.663899999999998</v>
+      </c>
+      <c r="O26" t="str">
         <f t="shared" si="1"/>
         <v>DTER</v>
       </c>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" s="90" t="s">
+      <c r="D27" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="90">
+      <c r="E27">
         <v>2035</v>
       </c>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90">
-        <v>50.264299999999999</v>
-      </c>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90" t="str">
+      <c r="H27">
+        <v>54.030799999999999</v>
+      </c>
+      <c r="O27" t="str">
         <f t="shared" si="1"/>
         <v>DTER</v>
       </c>
     </row>
     <row r="28" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D28" s="90" t="s">
+      <c r="D28" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="90">
+      <c r="E28">
         <v>2040</v>
       </c>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90">
-        <v>60.496299999999998</v>
-      </c>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90" t="str">
+      <c r="H28">
+        <v>60.668600000000005</v>
+      </c>
+      <c r="O28" t="str">
         <f t="shared" si="1"/>
         <v>DTER</v>
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D29" s="90" t="s">
+      <c r="D29" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="90">
+      <c r="E29">
         <v>2045</v>
       </c>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90">
-        <v>72.998800000000003</v>
-      </c>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90" t="str">
+      <c r="H29">
+        <v>73.020099999999999</v>
+      </c>
+      <c r="O29" t="str">
         <f t="shared" si="1"/>
         <v>DTER</v>
       </c>
@@ -10670,7 +10572,7 @@
       <c r="F30" s="79"/>
       <c r="G30" s="79"/>
       <c r="H30" s="79">
-        <v>88.119699999999995</v>
+        <v>88.122200000000007</v>
       </c>
       <c r="I30" s="79"/>
       <c r="J30" s="79"/>
@@ -10684,163 +10586,115 @@
       </c>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D31" s="91" t="s">
+      <c r="D31" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="91">
+      <c r="E31" s="87">
         <v>2019</v>
       </c>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91" cm="1">
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87" cm="1">
         <f t="array" ref="H31:H38">+TRANSPOSE(E7:L7)</f>
         <v>69.341300000000004</v>
       </c>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91" t="str">
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87" t="str">
         <f t="shared" ref="O31:O38" si="2">+$C$7</f>
         <v>DRSD</v>
       </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D32" s="90" t="s">
+      <c r="D32" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="90">
+      <c r="E32">
         <v>2020</v>
       </c>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90">
-        <v>69.898099999999999</v>
-      </c>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90" t="str">
+      <c r="H32">
+        <v>70.399799999999999</v>
+      </c>
+      <c r="O32" t="str">
         <f t="shared" si="2"/>
         <v>DRSD</v>
       </c>
     </row>
     <row r="33" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D33" s="90" t="s">
+      <c r="D33" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="90">
+      <c r="E33">
         <v>2025</v>
       </c>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90">
-        <v>63.788799999999995</v>
-      </c>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90" t="str">
+      <c r="H33">
+        <v>72.347100000000012</v>
+      </c>
+      <c r="O33" t="str">
         <f t="shared" si="2"/>
         <v>DRSD</v>
       </c>
     </row>
     <row r="34" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D34" s="90" t="s">
+      <c r="D34" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="90">
+      <c r="E34">
         <v>2030</v>
       </c>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90">
-        <v>38.0062</v>
-      </c>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90" t="str">
+      <c r="H34">
+        <v>60.032299999999999</v>
+      </c>
+      <c r="O34" t="str">
         <f t="shared" si="2"/>
         <v>DRSD</v>
       </c>
     </row>
     <row r="35" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D35" s="90" t="s">
+      <c r="D35" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="90">
+      <c r="E35">
         <v>2035</v>
       </c>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90">
-        <v>18.564700000000002</v>
-      </c>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="90" t="str">
+      <c r="H35">
+        <v>40.972300000000004</v>
+      </c>
+      <c r="O35" t="str">
         <f t="shared" si="2"/>
         <v>DRSD</v>
       </c>
     </row>
     <row r="36" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D36" s="90" t="s">
+      <c r="D36" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="90">
+      <c r="E36">
         <v>2040</v>
       </c>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90">
-        <v>7.9062000000000001</v>
-      </c>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="90" t="str">
+      <c r="H36">
+        <v>26.482499999999998</v>
+      </c>
+      <c r="O36" t="str">
         <f t="shared" si="2"/>
         <v>DRSD</v>
       </c>
     </row>
     <row r="37" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D37" s="90" t="s">
+      <c r="D37" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="90">
+      <c r="E37">
         <v>2045</v>
       </c>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90">
-        <v>7.9055999999999997</v>
-      </c>
-      <c r="I37" s="90"/>
-      <c r="J37" s="90"/>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="90" t="str">
+      <c r="H37">
+        <v>15.279199999999999</v>
+      </c>
+      <c r="O37" t="str">
         <f t="shared" si="2"/>
         <v>DRSD</v>
       </c>
@@ -10855,7 +10709,7 @@
       <c r="F38" s="79"/>
       <c r="G38" s="79"/>
       <c r="H38" s="79">
-        <v>7.4988999999999999</v>
+        <v>7.4989999999999997</v>
       </c>
       <c r="I38" s="79"/>
       <c r="J38" s="79"/>
@@ -10869,163 +10723,115 @@
       </c>
     </row>
     <row r="39" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D39" s="91" t="s">
+      <c r="D39" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="91">
+      <c r="E39" s="87">
         <v>2019</v>
       </c>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91" cm="1">
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87" cm="1">
         <f t="array" ref="H39:H46">+TRANSPOSE(E8:L8)</f>
         <v>105.9659</v>
       </c>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="91" t="str">
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87" t="str">
         <f t="shared" ref="O39:O46" si="3">+$C$8</f>
         <v>DIND</v>
       </c>
     </row>
     <row r="40" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D40" s="90" t="s">
+      <c r="D40" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="90">
+      <c r="E40">
         <v>2020</v>
       </c>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90">
-        <v>98.619399999999999</v>
-      </c>
-      <c r="I40" s="90"/>
-      <c r="J40" s="90"/>
-      <c r="K40" s="90"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
-      <c r="N40" s="90"/>
-      <c r="O40" s="90" t="str">
+      <c r="H40">
+        <v>98.641600000000011</v>
+      </c>
+      <c r="O40" t="str">
         <f t="shared" si="3"/>
         <v>DIND</v>
       </c>
     </row>
     <row r="41" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D41" s="90" t="s">
+      <c r="D41" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="90">
+      <c r="E41">
         <v>2025</v>
       </c>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90">
-        <v>114.10899999999999</v>
-      </c>
-      <c r="I41" s="90"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90" t="str">
+      <c r="H41">
+        <v>109.53559999999999</v>
+      </c>
+      <c r="O41" t="str">
         <f t="shared" si="3"/>
         <v>DIND</v>
       </c>
     </row>
     <row r="42" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D42" s="90" t="s">
+      <c r="D42" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="90">
+      <c r="E42">
         <v>2030</v>
       </c>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90">
-        <v>131.82839999999999</v>
-      </c>
-      <c r="I42" s="90"/>
-      <c r="J42" s="90"/>
-      <c r="K42" s="90"/>
-      <c r="L42" s="90"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="90"/>
-      <c r="O42" s="90" t="str">
+      <c r="H42">
+        <v>115.2475</v>
+      </c>
+      <c r="O42" t="str">
         <f t="shared" si="3"/>
         <v>DIND</v>
       </c>
     </row>
     <row r="43" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D43" s="90" t="s">
+      <c r="D43" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="90">
+      <c r="E43">
         <v>2035</v>
       </c>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90">
-        <v>147.7099</v>
-      </c>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-      <c r="L43" s="90"/>
-      <c r="M43" s="90"/>
-      <c r="N43" s="90"/>
-      <c r="O43" s="90" t="str">
+      <c r="H43">
+        <v>122.26180000000001</v>
+      </c>
+      <c r="O43" t="str">
         <f t="shared" si="3"/>
         <v>DIND</v>
       </c>
     </row>
     <row r="44" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D44" s="90" t="s">
+      <c r="D44" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="90">
+      <c r="E44">
         <v>2040</v>
       </c>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90">
-        <v>169.75069999999999</v>
-      </c>
-      <c r="I44" s="90"/>
-      <c r="J44" s="90"/>
-      <c r="K44" s="90"/>
-      <c r="L44" s="90"/>
-      <c r="M44" s="90"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90" t="str">
+      <c r="H44">
+        <v>136.90830000000003</v>
+      </c>
+      <c r="O44" t="str">
         <f t="shared" si="3"/>
         <v>DIND</v>
       </c>
     </row>
     <row r="45" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D45" s="90" t="s">
+      <c r="D45" t="s">
         <v>57</v>
       </c>
-      <c r="E45" s="90">
+      <c r="E45">
         <v>2045</v>
       </c>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90">
-        <v>189.20880000000002</v>
-      </c>
-      <c r="I45" s="90"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="90"/>
-      <c r="L45" s="90"/>
-      <c r="M45" s="90"/>
-      <c r="N45" s="90"/>
-      <c r="O45" s="90" t="str">
+      <c r="H45">
+        <v>158.66909999999996</v>
+      </c>
+      <c r="O45" t="str">
         <f t="shared" si="3"/>
         <v>DIND</v>
       </c>
@@ -11040,7 +10846,7 @@
       <c r="F46" s="79"/>
       <c r="G46" s="79"/>
       <c r="H46" s="79">
-        <v>212.33340000000004</v>
+        <v>185.6712</v>
       </c>
       <c r="I46" s="79"/>
       <c r="J46" s="79"/>
@@ -11064,7 +10870,7 @@
         <f t="array" ref="H47:H54">+TRANSPOSE(E9:L9)</f>
         <v>574.73889999999994</v>
       </c>
-      <c r="O47" s="92" t="str">
+      <c r="O47" t="str">
         <f t="shared" ref="O47:O54" si="4">+$C$9</f>
         <v>DTRA</v>
       </c>
@@ -11077,7 +10883,7 @@
         <v>2020</v>
       </c>
       <c r="H48">
-        <v>577.35809999999992</v>
+        <v>577.1468000000001</v>
       </c>
       <c r="O48" t="str">
         <f t="shared" si="4"/>
@@ -11092,7 +10898,7 @@
         <v>2025</v>
       </c>
       <c r="H49">
-        <v>605.93169999999998</v>
+        <v>648.25800000000004</v>
       </c>
       <c r="O49" t="str">
         <f t="shared" si="4"/>
@@ -11107,7 +10913,7 @@
         <v>2030</v>
       </c>
       <c r="H50">
-        <v>601.9633</v>
+        <v>691.68829999999991</v>
       </c>
       <c r="O50" t="str">
         <f t="shared" si="4"/>
@@ -11122,7 +10928,7 @@
         <v>2035</v>
       </c>
       <c r="H51">
-        <v>587.77409999999998</v>
+        <v>700.2876</v>
       </c>
       <c r="O51" t="str">
         <f t="shared" si="4"/>
@@ -11137,7 +10943,7 @@
         <v>2040</v>
       </c>
       <c r="H52">
-        <v>578.48169999999993</v>
+        <v>696.71199999999999</v>
       </c>
       <c r="O52" t="str">
         <f t="shared" si="4"/>
@@ -11152,7 +10958,7 @@
         <v>2045</v>
       </c>
       <c r="H53">
-        <v>569.94369999999992</v>
+        <v>689.51819999999998</v>
       </c>
       <c r="O53" t="str">
         <f t="shared" si="4"/>
@@ -11169,7 +10975,7 @@
       <c r="F54" s="79"/>
       <c r="G54" s="79"/>
       <c r="H54" s="79">
-        <v>572.8922</v>
+        <v>693.02160000000003</v>
       </c>
       <c r="I54" s="79"/>
       <c r="J54" s="79"/>

--- a/SuppXLS/Scen_INF_Demand.xlsx
+++ b/SuppXLS/Scen_INF_Demand.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD3FF0A-01AB-4C02-90C7-DC85C7A2C7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009ECE98-D98B-4991-9E6F-1A44181F534F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25920" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEM_Especifica" sheetId="1" r:id="rId1"/>
-    <sheet name="DEM_General" sheetId="2" r:id="rId2"/>
+    <sheet name="datos" sheetId="3" r:id="rId2"/>
+    <sheet name="DEM_General" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="61">
   <si>
     <t>TechName</t>
   </si>
@@ -1158,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AE288"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:N33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H154" sqref="H154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10032,6 +10033,1114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B9DC9D-38B5-4D3B-BABA-1E63DDFBA5A1}">
+  <dimension ref="D8:P36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:P36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D8" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="59">
+        <v>1</v>
+      </c>
+      <c r="I8" s="45">
+        <v>0.70492284759636947</v>
+      </c>
+      <c r="J8" s="46">
+        <v>0.71027709227023539</v>
+      </c>
+      <c r="K8" s="46">
+        <v>0.71018283052707665</v>
+      </c>
+      <c r="L8" s="46">
+        <v>0.71320579170785603</v>
+      </c>
+      <c r="M8" s="46">
+        <v>0.71486629778146171</v>
+      </c>
+      <c r="N8" s="46">
+        <v>0.71503401741990957</v>
+      </c>
+      <c r="O8" s="46">
+        <v>0.71399693928190033</v>
+      </c>
+      <c r="P8" s="47">
+        <v>0.71196823116894092</v>
+      </c>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D9" s="60"/>
+      <c r="E9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1</v>
+      </c>
+      <c r="I9" s="25">
+        <v>6.6022474682462001E-2</v>
+      </c>
+      <c r="J9" s="26">
+        <v>6.6523948687212134E-2</v>
+      </c>
+      <c r="K9" s="26">
+        <v>6.651512021247559E-2</v>
+      </c>
+      <c r="L9" s="26">
+        <v>6.6798248186983156E-2</v>
+      </c>
+      <c r="M9" s="26">
+        <v>6.6953769774315053E-2</v>
+      </c>
+      <c r="N9" s="26">
+        <v>6.6969478253081111E-2</v>
+      </c>
+      <c r="O9" s="26">
+        <v>6.6872346396248949E-2</v>
+      </c>
+      <c r="P9" s="48">
+        <v>6.6682339318903286E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D10" s="60"/>
+      <c r="E10" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="43">
+        <v>1</v>
+      </c>
+      <c r="I10" s="49">
+        <v>6.6920156894449958E-3</v>
+      </c>
+      <c r="J10" s="50">
+        <v>6.929791145634928E-3</v>
+      </c>
+      <c r="K10" s="50">
+        <v>6.77249243782959E-3</v>
+      </c>
+      <c r="L10" s="50">
+        <v>6.6178805784550977E-3</v>
+      </c>
+      <c r="M10" s="50">
+        <v>6.5021617867783779E-3</v>
+      </c>
+      <c r="N10" s="50">
+        <v>6.4218783098451155E-3</v>
+      </c>
+      <c r="O10" s="50">
+        <v>6.3682683038996874E-3</v>
+      </c>
+      <c r="P10" s="51">
+        <v>6.3368678974272319E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D11" s="60"/>
+      <c r="E11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="23">
+        <v>1</v>
+      </c>
+      <c r="I11" s="25">
+        <v>3.8560214180194803E-4</v>
+      </c>
+      <c r="J11" s="26">
+        <v>3.9930305486456775E-4</v>
+      </c>
+      <c r="K11" s="26">
+        <v>3.9023931062856949E-4</v>
+      </c>
+      <c r="L11" s="26">
+        <v>3.8133038589056872E-4</v>
+      </c>
+      <c r="M11" s="26">
+        <v>3.7466252735765223E-4</v>
+      </c>
+      <c r="N11" s="26">
+        <v>3.7003649506881571E-4</v>
+      </c>
+      <c r="O11" s="26">
+        <v>3.6694742085352695E-4</v>
+      </c>
+      <c r="P11" s="48">
+        <v>3.6513809096681913E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D12" s="61"/>
+      <c r="E12" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="65">
+        <v>1</v>
+      </c>
+      <c r="I12" s="52">
+        <v>0.28838513671418559</v>
+      </c>
+      <c r="J12" s="53">
+        <v>0.28279311658412976</v>
+      </c>
+      <c r="K12" s="53">
+        <v>0.28304467703509384</v>
+      </c>
+      <c r="L12" s="53">
+        <v>0.28017632771368889</v>
+      </c>
+      <c r="M12" s="53">
+        <v>0.27863154043175997</v>
+      </c>
+      <c r="N12" s="53">
+        <v>0.27854410427024534</v>
+      </c>
+      <c r="O12" s="53">
+        <v>0.27963479241419981</v>
+      </c>
+      <c r="P12" s="54">
+        <v>0.28169490093363186</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="59">
+        <v>1</v>
+      </c>
+      <c r="I13" s="45">
+        <v>0.94914717262718429</v>
+      </c>
+      <c r="J13" s="46">
+        <v>0.94900036088054851</v>
+      </c>
+      <c r="K13" s="46">
+        <v>0.94207287924935468</v>
+      </c>
+      <c r="L13" s="46">
+        <v>0.93664116240507755</v>
+      </c>
+      <c r="M13" s="46">
+        <v>0.96537160286355184</v>
+      </c>
+      <c r="N13" s="46">
+        <v>0.99584958281549263</v>
+      </c>
+      <c r="O13" s="46">
+        <v>0.99970556052374615</v>
+      </c>
+      <c r="P13" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="61"/>
+      <c r="E14" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="65">
+        <v>1</v>
+      </c>
+      <c r="I14" s="52">
+        <v>5.0852827372815664E-2</v>
+      </c>
+      <c r="J14" s="53">
+        <v>5.0999639119451462E-2</v>
+      </c>
+      <c r="K14" s="53">
+        <v>5.7927120750645336E-2</v>
+      </c>
+      <c r="L14" s="53">
+        <v>6.335883759492239E-2</v>
+      </c>
+      <c r="M14" s="53">
+        <v>3.4628397136448101E-2</v>
+      </c>
+      <c r="N14" s="53">
+        <v>4.150417184507307E-3</v>
+      </c>
+      <c r="O14" s="53">
+        <v>2.9443947625379857E-4</v>
+      </c>
+      <c r="P14" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="59">
+        <v>1</v>
+      </c>
+      <c r="I15" s="45">
+        <v>0.73862618670258562</v>
+      </c>
+      <c r="J15" s="46">
+        <v>0.73892113329867415</v>
+      </c>
+      <c r="K15" s="46">
+        <v>0.74889110966438177</v>
+      </c>
+      <c r="L15" s="46">
+        <v>0.74775912300544867</v>
+      </c>
+      <c r="M15" s="46">
+        <v>0.73576050160718331</v>
+      </c>
+      <c r="N15" s="46">
+        <v>0.70077220806192775</v>
+      </c>
+      <c r="O15" s="46">
+        <v>0.48247290434054141</v>
+      </c>
+      <c r="P15" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D16" s="61"/>
+      <c r="E16" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="65">
+        <v>1</v>
+      </c>
+      <c r="I16" s="52">
+        <v>0.26137381329741433</v>
+      </c>
+      <c r="J16" s="53">
+        <v>0.26107886670132585</v>
+      </c>
+      <c r="K16" s="53">
+        <v>0.25110889033561812</v>
+      </c>
+      <c r="L16" s="53">
+        <v>0.25224087699455128</v>
+      </c>
+      <c r="M16" s="53">
+        <v>0.26423949839281657</v>
+      </c>
+      <c r="N16" s="53">
+        <v>0.29922779193807231</v>
+      </c>
+      <c r="O16" s="53">
+        <v>0.51752709565945865</v>
+      </c>
+      <c r="P16" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D17" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="59">
+        <v>1</v>
+      </c>
+      <c r="I17" s="45">
+        <v>2.3815208477444158E-2</v>
+      </c>
+      <c r="J17" s="46">
+        <v>2.2291811973852816E-2</v>
+      </c>
+      <c r="K17" s="46">
+        <v>1.8488966144340289E-2</v>
+      </c>
+      <c r="L17" s="46">
+        <v>1.3679255515304019E-2</v>
+      </c>
+      <c r="M17" s="46">
+        <v>9.258820007557551E-3</v>
+      </c>
+      <c r="N17" s="46">
+        <v>5.3838956440186592E-3</v>
+      </c>
+      <c r="O17" s="46">
+        <v>3.4997362435408037E-3</v>
+      </c>
+      <c r="P17" s="47">
+        <v>1.6243768554304598E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D18" s="60"/>
+      <c r="E18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
+      <c r="I18" s="25">
+        <v>2.230512181752852E-3</v>
+      </c>
+      <c r="J18" s="26">
+        <v>2.0878321601977834E-3</v>
+      </c>
+      <c r="K18" s="26">
+        <v>1.7316608524349532E-3</v>
+      </c>
+      <c r="L18" s="26">
+        <v>1.2811874434395048E-3</v>
+      </c>
+      <c r="M18" s="26">
+        <v>8.6717321139867303E-4</v>
+      </c>
+      <c r="N18" s="26">
+        <v>5.042510894096747E-4</v>
+      </c>
+      <c r="O18" s="26">
+        <v>3.2778232160063326E-4</v>
+      </c>
+      <c r="P18" s="48">
+        <v>1.5213775546943573E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D19" s="60"/>
+      <c r="E19" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="43">
+        <v>1</v>
+      </c>
+      <c r="I19" s="49">
+        <v>2.0733084888629265E-3</v>
+      </c>
+      <c r="J19" s="50">
+        <v>4.6156996642390223E-3</v>
+      </c>
+      <c r="K19" s="50">
+        <v>4.1776372247926703E-3</v>
+      </c>
+      <c r="L19" s="50">
+        <v>3.3657996919672878E-3</v>
+      </c>
+      <c r="M19" s="50">
+        <v>2.610790942060398E-3</v>
+      </c>
+      <c r="N19" s="50">
+        <v>2.14961401171441E-3</v>
+      </c>
+      <c r="O19" s="50">
+        <v>2.1258077344612158E-3</v>
+      </c>
+      <c r="P19" s="51">
+        <v>2.0961786211324105E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D20" s="60"/>
+      <c r="E20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1</v>
+      </c>
+      <c r="I20" s="25">
+        <v>1.1946657494881176E-4</v>
+      </c>
+      <c r="J20" s="26">
+        <v>2.6596226892479228E-4</v>
+      </c>
+      <c r="K20" s="26">
+        <v>2.4072057453367998E-4</v>
+      </c>
+      <c r="L20" s="26">
+        <v>1.9394150138439997E-4</v>
+      </c>
+      <c r="M20" s="26">
+        <v>1.5043697232262589E-4</v>
+      </c>
+      <c r="N20" s="26">
+        <v>1.2386339265042863E-4</v>
+      </c>
+      <c r="O20" s="26">
+        <v>1.2249164579220749E-4</v>
+      </c>
+      <c r="P20" s="48">
+        <v>1.2078437998628593E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="60"/>
+      <c r="E21" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="43">
+        <v>1</v>
+      </c>
+      <c r="I21" s="49">
+        <v>0.92987932910492899</v>
+      </c>
+      <c r="J21" s="50">
+        <v>0.92789147783490933</v>
+      </c>
+      <c r="K21" s="50">
+        <v>0.93587746814734207</v>
+      </c>
+      <c r="L21" s="50">
+        <v>0.94391982472504832</v>
+      </c>
+      <c r="M21" s="50">
+        <v>0.95160712503823763</v>
+      </c>
+      <c r="N21" s="50">
+        <v>0.95939252769919714</v>
+      </c>
+      <c r="O21" s="50">
+        <v>0.9647057933775387</v>
+      </c>
+      <c r="P21" s="51">
+        <v>0.96976806311371933</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D22" s="60"/>
+      <c r="E22" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="43">
+        <v>1</v>
+      </c>
+      <c r="I22" s="49">
+        <v>3.7747992514573081E-5</v>
+      </c>
+      <c r="J22" s="50">
+        <v>3.9537071580347435E-5</v>
+      </c>
+      <c r="K22" s="50">
+        <v>3.1040136722672816E-5</v>
+      </c>
+      <c r="L22" s="50">
+        <v>2.2560142302436061E-5</v>
+      </c>
+      <c r="M22" s="50">
+        <v>1.3904588350572295E-5</v>
+      </c>
+      <c r="N22" s="50">
+        <v>6.5737431550899382E-6</v>
+      </c>
+      <c r="O22" s="50">
+        <v>5.6721819182184823E-6</v>
+      </c>
+      <c r="P22" s="51">
+        <v>4.8472784147460675E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="60"/>
+      <c r="E23" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="43">
+        <v>1</v>
+      </c>
+      <c r="I23" s="49">
+        <v>3.934284519831379E-2</v>
+      </c>
+      <c r="J23" s="50">
+        <v>4.0960406157239941E-2</v>
+      </c>
+      <c r="K23" s="50">
+        <v>3.7724721460420177E-2</v>
+      </c>
+      <c r="L23" s="50">
+        <v>3.5984294670166381E-2</v>
+      </c>
+      <c r="M23" s="50">
+        <v>3.4079328130290895E-2</v>
+      </c>
+      <c r="N23" s="50">
+        <v>3.1145664652910007E-2</v>
+      </c>
+      <c r="O23" s="50">
+        <v>2.7748944186360175E-2</v>
+      </c>
+      <c r="P23" s="51">
+        <v>2.4609632511665785E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D24" s="60"/>
+      <c r="E24" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="43">
+        <v>1</v>
+      </c>
+      <c r="I24" s="49">
+        <v>4.1598287751059542E-3</v>
+      </c>
+      <c r="J24" s="50">
+        <v>3.5005514914599922E-3</v>
+      </c>
+      <c r="K24" s="50">
+        <v>3.1642680553171758E-3</v>
+      </c>
+      <c r="L24" s="50">
+        <v>2.6942016095793833E-3</v>
+      </c>
+      <c r="M24" s="50">
+        <v>2.2754449877230663E-3</v>
+      </c>
+      <c r="N24" s="50">
+        <v>1.9217242490046254E-3</v>
+      </c>
+      <c r="O24" s="50">
+        <v>1.9140462761810593E-3</v>
+      </c>
+      <c r="P24" s="51">
+        <v>1.8969016196372945E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D25" s="60"/>
+      <c r="E25" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="43">
+        <v>1</v>
+      </c>
+      <c r="I25" s="49">
+        <v>6.9173196282955177E-4</v>
+      </c>
+      <c r="J25" s="50">
+        <v>7.0051580671846349E-4</v>
+      </c>
+      <c r="K25" s="50">
+        <v>5.3589883106496894E-4</v>
+      </c>
+      <c r="L25" s="50">
+        <v>3.3406364563222629E-4</v>
+      </c>
+      <c r="M25" s="50">
+        <v>1.5458630577989198E-4</v>
+      </c>
+      <c r="N25" s="50">
+        <v>0</v>
+      </c>
+      <c r="O25" s="50">
+        <v>0</v>
+      </c>
+      <c r="P25" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D26" s="61"/>
+      <c r="E26" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="65">
+        <v>1</v>
+      </c>
+      <c r="I26" s="52">
+        <v>0</v>
+      </c>
+      <c r="J26" s="53">
+        <v>0</v>
+      </c>
+      <c r="K26" s="53">
+        <v>0</v>
+      </c>
+      <c r="L26" s="53">
+        <v>0</v>
+      </c>
+      <c r="M26" s="53">
+        <v>0</v>
+      </c>
+      <c r="N26" s="53">
+        <v>0</v>
+      </c>
+      <c r="O26" s="53">
+        <v>0</v>
+      </c>
+      <c r="P26" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D27" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="59">
+        <v>1</v>
+      </c>
+      <c r="I27" s="45">
+        <v>0.42556332971371874</v>
+      </c>
+      <c r="J27" s="46">
+        <v>0.4387611609386034</v>
+      </c>
+      <c r="K27" s="46">
+        <v>0.44261960515720589</v>
+      </c>
+      <c r="L27" s="46">
+        <v>0.44290296655299799</v>
+      </c>
+      <c r="M27" s="46">
+        <v>0.4365209379689145</v>
+      </c>
+      <c r="N27" s="46">
+        <v>0.41451173512154232</v>
+      </c>
+      <c r="O27" s="46">
+        <v>0.37133349054455705</v>
+      </c>
+      <c r="P27" s="47">
+        <v>0.31861719750149203</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D28" s="60"/>
+      <c r="E28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="23">
+        <v>1</v>
+      </c>
+      <c r="I28" s="25">
+        <v>3.9857899708616182E-2</v>
+      </c>
+      <c r="J28" s="26">
+        <v>4.1093997362252291E-2</v>
+      </c>
+      <c r="K28" s="26">
+        <v>4.1455375967875574E-2</v>
+      </c>
+      <c r="L28" s="26">
+        <v>4.1481915355332605E-2</v>
+      </c>
+      <c r="M28" s="26">
+        <v>4.0884179983224668E-2</v>
+      </c>
+      <c r="N28" s="26">
+        <v>3.8822816753579674E-2</v>
+      </c>
+      <c r="O28" s="26">
+        <v>3.4778779070395574E-2</v>
+      </c>
+      <c r="P28" s="48">
+        <v>2.9841415875747242E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D29" s="60"/>
+      <c r="E29" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="43">
+        <v>1</v>
+      </c>
+      <c r="I29" s="49">
+        <v>0.43290649023408723</v>
+      </c>
+      <c r="J29" s="50">
+        <v>0.44270157956346629</v>
+      </c>
+      <c r="K29" s="50">
+        <v>0.43700779627864206</v>
+      </c>
+      <c r="L29" s="50">
+        <v>0.42115097219368908</v>
+      </c>
+      <c r="M29" s="50">
+        <v>0.38398409453487392</v>
+      </c>
+      <c r="N29" s="50">
+        <v>0.32997249939716844</v>
+      </c>
+      <c r="O29" s="50">
+        <v>0.27653309223744926</v>
+      </c>
+      <c r="P29" s="51">
+        <v>0.22563596863358948</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D30" s="60"/>
+      <c r="E30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="23">
+        <v>1</v>
+      </c>
+      <c r="I30" s="25">
+        <v>2.4944602281420009E-2</v>
+      </c>
+      <c r="J30" s="26">
+        <v>2.5509007327646552E-2</v>
+      </c>
+      <c r="K30" s="26">
+        <v>2.5180924559842038E-2</v>
+      </c>
+      <c r="L30" s="26">
+        <v>2.4267234931322702E-2</v>
+      </c>
+      <c r="M30" s="26">
+        <v>2.2125633910880578E-2</v>
+      </c>
+      <c r="N30" s="26">
+        <v>1.901341963438264E-2</v>
+      </c>
+      <c r="O30" s="26">
+        <v>1.5934175530111408E-2</v>
+      </c>
+      <c r="P30" s="48">
+        <v>1.3001420918647772E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D31" s="60"/>
+      <c r="E31" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="43">
+        <v>1</v>
+      </c>
+      <c r="I31" s="49">
+        <v>3.638539169699493E-2</v>
+      </c>
+      <c r="J31" s="50">
+        <v>3.500721133687304E-2</v>
+      </c>
+      <c r="K31" s="50">
+        <v>2.9217688019276274E-2</v>
+      </c>
+      <c r="L31" s="50">
+        <v>3.3821014465619852E-2</v>
+      </c>
+      <c r="M31" s="50">
+        <v>5.8599209810369333E-2</v>
+      </c>
+      <c r="N31" s="50">
+        <v>0.10951512246093077</v>
+      </c>
+      <c r="O31" s="50">
+        <v>0.17480089720619413</v>
+      </c>
+      <c r="P31" s="51">
+        <v>0.24365820632430502</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D32" s="60"/>
+      <c r="E32" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="43">
+        <v>1</v>
+      </c>
+      <c r="I32" s="49">
+        <v>0.10288236971605716</v>
+      </c>
+      <c r="J32" s="50">
+        <v>8.1917460167846359E-2</v>
+      </c>
+      <c r="K32" s="50">
+        <v>8.9395888673953885E-2</v>
+      </c>
+      <c r="L32" s="50">
+        <v>0.10012790443325413</v>
+      </c>
+      <c r="M32" s="50">
+        <v>0.11834523415808018</v>
+      </c>
+      <c r="N32" s="50">
+        <v>0.14248412543489994</v>
+      </c>
+      <c r="O32" s="50">
+        <v>0.17260530613985245</v>
+      </c>
+      <c r="P32" s="51">
+        <v>0.20606197555747177</v>
+      </c>
+    </row>
+    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D33" s="60"/>
+      <c r="E33" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="43">
+        <v>1</v>
+      </c>
+      <c r="I33" s="49">
+        <v>5.4111527860738156E-5</v>
+      </c>
+      <c r="J33" s="50">
+        <v>5.3192705911217035E-5</v>
+      </c>
+      <c r="K33" s="50">
+        <v>5.7230300281677974E-5</v>
+      </c>
+      <c r="L33" s="50">
+        <v>9.1081488583802855E-5</v>
+      </c>
+      <c r="M33" s="50">
+        <v>2.9773481638115541E-4</v>
+      </c>
+      <c r="N33" s="50">
+        <v>8.0420604209486852E-4</v>
+      </c>
+      <c r="O33" s="50">
+        <v>1.441441284653545E-3</v>
+      </c>
+      <c r="P33" s="51">
+        <v>2.1041191212510546E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D34" s="60"/>
+      <c r="E34" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="41"/>
+      <c r="G34" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="43">
+        <v>1</v>
+      </c>
+      <c r="I34" s="49">
+        <v>1.2957188037907301E-3</v>
+      </c>
+      <c r="J34" s="50">
+        <v>1.5593952872995222E-3</v>
+      </c>
+      <c r="K34" s="50">
+        <v>1.7017915706400845E-3</v>
+      </c>
+      <c r="L34" s="50">
+        <v>1.9060608658553284E-3</v>
+      </c>
+      <c r="M34" s="50">
+        <v>2.2527887113808669E-3</v>
+      </c>
+      <c r="N34" s="50">
+        <v>2.7123115433636854E-3</v>
+      </c>
+      <c r="O34" s="50">
+        <v>3.2857725872935625E-3</v>
+      </c>
+      <c r="P34" s="51">
+        <v>3.9225328618905956E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D35" s="60"/>
+      <c r="E35" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="43">
+        <v>1</v>
+      </c>
+      <c r="I35" s="49">
+        <v>9.1258830749058398E-4</v>
+      </c>
+      <c r="J35" s="50">
+        <v>0</v>
+      </c>
+      <c r="K35" s="50">
+        <v>0</v>
+      </c>
+      <c r="L35" s="50">
+        <v>0</v>
+      </c>
+      <c r="M35" s="50">
+        <v>0</v>
+      </c>
+      <c r="N35" s="50">
+        <v>0</v>
+      </c>
+      <c r="O35" s="50">
+        <v>0</v>
+      </c>
+      <c r="P35" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D36" s="61"/>
+      <c r="E36" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="65">
+        <v>1</v>
+      </c>
+      <c r="I36" s="52">
+        <v>0</v>
+      </c>
+      <c r="J36" s="53">
+        <v>0</v>
+      </c>
+      <c r="K36" s="53">
+        <v>0</v>
+      </c>
+      <c r="L36" s="53">
+        <v>0</v>
+      </c>
+      <c r="M36" s="53">
+        <v>0</v>
+      </c>
+      <c r="N36" s="53">
+        <v>0</v>
+      </c>
+      <c r="O36" s="53">
+        <v>0</v>
+      </c>
+      <c r="P36" s="54">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429C857E-7E9C-40EC-8492-D79139CDAA51}">
   <dimension ref="B3:P54"/>
   <sheetViews>

--- a/SuppXLS/Scen_INF_Demand.xlsx
+++ b/SuppXLS/Scen_INF_Demand.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009ECE98-D98B-4991-9E6F-1A44181F534F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCCF1A9-0B21-4F16-9E46-2E8EA592868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25920" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DEM_Especifica" sheetId="1" r:id="rId1"/>
-    <sheet name="datos" sheetId="3" r:id="rId2"/>
+    <sheet name="datos" sheetId="3" r:id="rId1"/>
+    <sheet name="DEM_Especifica" sheetId="1" r:id="rId2"/>
     <sheet name="DEM_General" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1156,11 +1156,1119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B9DC9D-38B5-4D3B-BABA-1E63DDFBA5A1}">
+  <dimension ref="D8:P36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:P36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D8" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="59">
+        <v>1</v>
+      </c>
+      <c r="I8" s="45">
+        <v>0.70492284759636947</v>
+      </c>
+      <c r="J8" s="46">
+        <v>0.71027709227023539</v>
+      </c>
+      <c r="K8" s="46">
+        <v>0.71018283052707665</v>
+      </c>
+      <c r="L8" s="46">
+        <v>0.71320579170785603</v>
+      </c>
+      <c r="M8" s="46">
+        <v>0.71486629778146171</v>
+      </c>
+      <c r="N8" s="46">
+        <v>0.71503401741990957</v>
+      </c>
+      <c r="O8" s="46">
+        <v>0.71399693928190033</v>
+      </c>
+      <c r="P8" s="47">
+        <v>0.71196823116894092</v>
+      </c>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D9" s="60"/>
+      <c r="E9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1</v>
+      </c>
+      <c r="I9" s="25">
+        <v>6.6022474682462001E-2</v>
+      </c>
+      <c r="J9" s="26">
+        <v>6.6523948687212134E-2</v>
+      </c>
+      <c r="K9" s="26">
+        <v>6.651512021247559E-2</v>
+      </c>
+      <c r="L9" s="26">
+        <v>6.6798248186983156E-2</v>
+      </c>
+      <c r="M9" s="26">
+        <v>6.6953769774315053E-2</v>
+      </c>
+      <c r="N9" s="26">
+        <v>6.6969478253081111E-2</v>
+      </c>
+      <c r="O9" s="26">
+        <v>6.6872346396248949E-2</v>
+      </c>
+      <c r="P9" s="48">
+        <v>6.6682339318903286E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D10" s="60"/>
+      <c r="E10" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="43">
+        <v>1</v>
+      </c>
+      <c r="I10" s="49">
+        <v>6.6920156894449958E-3</v>
+      </c>
+      <c r="J10" s="50">
+        <v>6.929791145634928E-3</v>
+      </c>
+      <c r="K10" s="50">
+        <v>6.77249243782959E-3</v>
+      </c>
+      <c r="L10" s="50">
+        <v>6.6178805784550977E-3</v>
+      </c>
+      <c r="M10" s="50">
+        <v>6.5021617867783779E-3</v>
+      </c>
+      <c r="N10" s="50">
+        <v>6.4218783098451155E-3</v>
+      </c>
+      <c r="O10" s="50">
+        <v>6.3682683038996874E-3</v>
+      </c>
+      <c r="P10" s="51">
+        <v>6.3368678974272319E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D11" s="60"/>
+      <c r="E11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="23">
+        <v>1</v>
+      </c>
+      <c r="I11" s="25">
+        <v>3.8560214180194803E-4</v>
+      </c>
+      <c r="J11" s="26">
+        <v>3.9930305486456775E-4</v>
+      </c>
+      <c r="K11" s="26">
+        <v>3.9023931062856949E-4</v>
+      </c>
+      <c r="L11" s="26">
+        <v>3.8133038589056872E-4</v>
+      </c>
+      <c r="M11" s="26">
+        <v>3.7466252735765223E-4</v>
+      </c>
+      <c r="N11" s="26">
+        <v>3.7003649506881571E-4</v>
+      </c>
+      <c r="O11" s="26">
+        <v>3.6694742085352695E-4</v>
+      </c>
+      <c r="P11" s="48">
+        <v>3.6513809096681913E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D12" s="61"/>
+      <c r="E12" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="65">
+        <v>1</v>
+      </c>
+      <c r="I12" s="52">
+        <v>0.28838513671418559</v>
+      </c>
+      <c r="J12" s="53">
+        <v>0.28279311658412976</v>
+      </c>
+      <c r="K12" s="53">
+        <v>0.28304467703509384</v>
+      </c>
+      <c r="L12" s="53">
+        <v>0.28017632771368889</v>
+      </c>
+      <c r="M12" s="53">
+        <v>0.27863154043175997</v>
+      </c>
+      <c r="N12" s="53">
+        <v>0.27854410427024534</v>
+      </c>
+      <c r="O12" s="53">
+        <v>0.27963479241419981</v>
+      </c>
+      <c r="P12" s="54">
+        <v>0.28169490093363186</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D13" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="59">
+        <v>1</v>
+      </c>
+      <c r="I13" s="45">
+        <v>0.94914717262718429</v>
+      </c>
+      <c r="J13" s="46">
+        <v>0.94900036088054851</v>
+      </c>
+      <c r="K13" s="46">
+        <v>0.94207287924935468</v>
+      </c>
+      <c r="L13" s="46">
+        <v>0.93664116240507755</v>
+      </c>
+      <c r="M13" s="46">
+        <v>0.96537160286355184</v>
+      </c>
+      <c r="N13" s="46">
+        <v>0.99584958281549263</v>
+      </c>
+      <c r="O13" s="46">
+        <v>0.99970556052374615</v>
+      </c>
+      <c r="P13" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D14" s="61"/>
+      <c r="E14" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="65">
+        <v>1</v>
+      </c>
+      <c r="I14" s="52">
+        <v>5.0852827372815664E-2</v>
+      </c>
+      <c r="J14" s="53">
+        <v>5.0999639119451462E-2</v>
+      </c>
+      <c r="K14" s="53">
+        <v>5.7927120750645336E-2</v>
+      </c>
+      <c r="L14" s="53">
+        <v>6.335883759492239E-2</v>
+      </c>
+      <c r="M14" s="53">
+        <v>3.4628397136448101E-2</v>
+      </c>
+      <c r="N14" s="53">
+        <v>4.150417184507307E-3</v>
+      </c>
+      <c r="O14" s="53">
+        <v>2.9443947625379857E-4</v>
+      </c>
+      <c r="P14" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D15" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="59">
+        <v>1</v>
+      </c>
+      <c r="I15" s="45">
+        <v>0.73862618670258562</v>
+      </c>
+      <c r="J15" s="46">
+        <v>0.73892113329867415</v>
+      </c>
+      <c r="K15" s="46">
+        <v>0.74889110966438177</v>
+      </c>
+      <c r="L15" s="46">
+        <v>0.74775912300544867</v>
+      </c>
+      <c r="M15" s="46">
+        <v>0.73576050160718331</v>
+      </c>
+      <c r="N15" s="46">
+        <v>0.70077220806192775</v>
+      </c>
+      <c r="O15" s="46">
+        <v>0.48247290434054141</v>
+      </c>
+      <c r="P15" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D16" s="61"/>
+      <c r="E16" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="65">
+        <v>1</v>
+      </c>
+      <c r="I16" s="52">
+        <v>0.26137381329741433</v>
+      </c>
+      <c r="J16" s="53">
+        <v>0.26107886670132585</v>
+      </c>
+      <c r="K16" s="53">
+        <v>0.25110889033561812</v>
+      </c>
+      <c r="L16" s="53">
+        <v>0.25224087699455128</v>
+      </c>
+      <c r="M16" s="53">
+        <v>0.26423949839281657</v>
+      </c>
+      <c r="N16" s="53">
+        <v>0.29922779193807231</v>
+      </c>
+      <c r="O16" s="53">
+        <v>0.51752709565945865</v>
+      </c>
+      <c r="P16" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D17" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="59">
+        <v>1</v>
+      </c>
+      <c r="I17" s="45">
+        <v>2.3815208477444158E-2</v>
+      </c>
+      <c r="J17" s="46">
+        <v>2.2291811973852816E-2</v>
+      </c>
+      <c r="K17" s="46">
+        <v>1.8488966144340289E-2</v>
+      </c>
+      <c r="L17" s="46">
+        <v>1.3679255515304019E-2</v>
+      </c>
+      <c r="M17" s="46">
+        <v>9.258820007557551E-3</v>
+      </c>
+      <c r="N17" s="46">
+        <v>5.3838956440186592E-3</v>
+      </c>
+      <c r="O17" s="46">
+        <v>3.4997362435408037E-3</v>
+      </c>
+      <c r="P17" s="47">
+        <v>1.6243768554304598E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D18" s="60"/>
+      <c r="E18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1</v>
+      </c>
+      <c r="I18" s="25">
+        <v>2.230512181752852E-3</v>
+      </c>
+      <c r="J18" s="26">
+        <v>2.0878321601977834E-3</v>
+      </c>
+      <c r="K18" s="26">
+        <v>1.7316608524349532E-3</v>
+      </c>
+      <c r="L18" s="26">
+        <v>1.2811874434395048E-3</v>
+      </c>
+      <c r="M18" s="26">
+        <v>8.6717321139867303E-4</v>
+      </c>
+      <c r="N18" s="26">
+        <v>5.042510894096747E-4</v>
+      </c>
+      <c r="O18" s="26">
+        <v>3.2778232160063326E-4</v>
+      </c>
+      <c r="P18" s="48">
+        <v>1.5213775546943573E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D19" s="60"/>
+      <c r="E19" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="41"/>
+      <c r="G19" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="43">
+        <v>1</v>
+      </c>
+      <c r="I19" s="49">
+        <v>2.0733084888629265E-3</v>
+      </c>
+      <c r="J19" s="50">
+        <v>4.6156996642390223E-3</v>
+      </c>
+      <c r="K19" s="50">
+        <v>4.1776372247926703E-3</v>
+      </c>
+      <c r="L19" s="50">
+        <v>3.3657996919672878E-3</v>
+      </c>
+      <c r="M19" s="50">
+        <v>2.610790942060398E-3</v>
+      </c>
+      <c r="N19" s="50">
+        <v>2.14961401171441E-3</v>
+      </c>
+      <c r="O19" s="50">
+        <v>2.1258077344612158E-3</v>
+      </c>
+      <c r="P19" s="51">
+        <v>2.0961786211324105E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D20" s="60"/>
+      <c r="E20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1</v>
+      </c>
+      <c r="I20" s="25">
+        <v>1.1946657494881176E-4</v>
+      </c>
+      <c r="J20" s="26">
+        <v>2.6596226892479228E-4</v>
+      </c>
+      <c r="K20" s="26">
+        <v>2.4072057453367998E-4</v>
+      </c>
+      <c r="L20" s="26">
+        <v>1.9394150138439997E-4</v>
+      </c>
+      <c r="M20" s="26">
+        <v>1.5043697232262589E-4</v>
+      </c>
+      <c r="N20" s="26">
+        <v>1.2386339265042863E-4</v>
+      </c>
+      <c r="O20" s="26">
+        <v>1.2249164579220749E-4</v>
+      </c>
+      <c r="P20" s="48">
+        <v>1.2078437998628593E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="60"/>
+      <c r="E21" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="43">
+        <v>1</v>
+      </c>
+      <c r="I21" s="49">
+        <v>0.92987932910492899</v>
+      </c>
+      <c r="J21" s="50">
+        <v>0.92789147783490933</v>
+      </c>
+      <c r="K21" s="50">
+        <v>0.93587746814734207</v>
+      </c>
+      <c r="L21" s="50">
+        <v>0.94391982472504832</v>
+      </c>
+      <c r="M21" s="50">
+        <v>0.95160712503823763</v>
+      </c>
+      <c r="N21" s="50">
+        <v>0.95939252769919714</v>
+      </c>
+      <c r="O21" s="50">
+        <v>0.9647057933775387</v>
+      </c>
+      <c r="P21" s="51">
+        <v>0.96976806311371933</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D22" s="60"/>
+      <c r="E22" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="43">
+        <v>1</v>
+      </c>
+      <c r="I22" s="49">
+        <v>3.7747992514573081E-5</v>
+      </c>
+      <c r="J22" s="50">
+        <v>3.9537071580347435E-5</v>
+      </c>
+      <c r="K22" s="50">
+        <v>3.1040136722672816E-5</v>
+      </c>
+      <c r="L22" s="50">
+        <v>2.2560142302436061E-5</v>
+      </c>
+      <c r="M22" s="50">
+        <v>1.3904588350572295E-5</v>
+      </c>
+      <c r="N22" s="50">
+        <v>6.5737431550899382E-6</v>
+      </c>
+      <c r="O22" s="50">
+        <v>5.6721819182184823E-6</v>
+      </c>
+      <c r="P22" s="51">
+        <v>4.8472784147460675E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="60"/>
+      <c r="E23" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="43">
+        <v>1</v>
+      </c>
+      <c r="I23" s="49">
+        <v>3.934284519831379E-2</v>
+      </c>
+      <c r="J23" s="50">
+        <v>4.0960406157239941E-2</v>
+      </c>
+      <c r="K23" s="50">
+        <v>3.7724721460420177E-2</v>
+      </c>
+      <c r="L23" s="50">
+        <v>3.5984294670166381E-2</v>
+      </c>
+      <c r="M23" s="50">
+        <v>3.4079328130290895E-2</v>
+      </c>
+      <c r="N23" s="50">
+        <v>3.1145664652910007E-2</v>
+      </c>
+      <c r="O23" s="50">
+        <v>2.7748944186360175E-2</v>
+      </c>
+      <c r="P23" s="51">
+        <v>2.4609632511665785E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D24" s="60"/>
+      <c r="E24" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="43">
+        <v>1</v>
+      </c>
+      <c r="I24" s="49">
+        <v>4.1598287751059542E-3</v>
+      </c>
+      <c r="J24" s="50">
+        <v>3.5005514914599922E-3</v>
+      </c>
+      <c r="K24" s="50">
+        <v>3.1642680553171758E-3</v>
+      </c>
+      <c r="L24" s="50">
+        <v>2.6942016095793833E-3</v>
+      </c>
+      <c r="M24" s="50">
+        <v>2.2754449877230663E-3</v>
+      </c>
+      <c r="N24" s="50">
+        <v>1.9217242490046254E-3</v>
+      </c>
+      <c r="O24" s="50">
+        <v>1.9140462761810593E-3</v>
+      </c>
+      <c r="P24" s="51">
+        <v>1.8969016196372945E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D25" s="60"/>
+      <c r="E25" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="43">
+        <v>1</v>
+      </c>
+      <c r="I25" s="49">
+        <v>6.9173196282955177E-4</v>
+      </c>
+      <c r="J25" s="50">
+        <v>7.0051580671846349E-4</v>
+      </c>
+      <c r="K25" s="50">
+        <v>5.3589883106496894E-4</v>
+      </c>
+      <c r="L25" s="50">
+        <v>3.3406364563222629E-4</v>
+      </c>
+      <c r="M25" s="50">
+        <v>1.5458630577989198E-4</v>
+      </c>
+      <c r="N25" s="50">
+        <v>0</v>
+      </c>
+      <c r="O25" s="50">
+        <v>0</v>
+      </c>
+      <c r="P25" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D26" s="61"/>
+      <c r="E26" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="65">
+        <v>1</v>
+      </c>
+      <c r="I26" s="52">
+        <v>0</v>
+      </c>
+      <c r="J26" s="53">
+        <v>0</v>
+      </c>
+      <c r="K26" s="53">
+        <v>0</v>
+      </c>
+      <c r="L26" s="53">
+        <v>0</v>
+      </c>
+      <c r="M26" s="53">
+        <v>0</v>
+      </c>
+      <c r="N26" s="53">
+        <v>0</v>
+      </c>
+      <c r="O26" s="53">
+        <v>0</v>
+      </c>
+      <c r="P26" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D27" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="59">
+        <v>1</v>
+      </c>
+      <c r="I27" s="45">
+        <v>0.42556332971371874</v>
+      </c>
+      <c r="J27" s="46">
+        <v>0.4387611609386034</v>
+      </c>
+      <c r="K27" s="46">
+        <v>0.44261960515720589</v>
+      </c>
+      <c r="L27" s="46">
+        <v>0.44290296655299799</v>
+      </c>
+      <c r="M27" s="46">
+        <v>0.4365209379689145</v>
+      </c>
+      <c r="N27" s="46">
+        <v>0.41451173512154232</v>
+      </c>
+      <c r="O27" s="46">
+        <v>0.37133349054455705</v>
+      </c>
+      <c r="P27" s="47">
+        <v>0.31861719750149203</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D28" s="60"/>
+      <c r="E28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="23">
+        <v>1</v>
+      </c>
+      <c r="I28" s="25">
+        <v>3.9857899708616182E-2</v>
+      </c>
+      <c r="J28" s="26">
+        <v>4.1093997362252291E-2</v>
+      </c>
+      <c r="K28" s="26">
+        <v>4.1455375967875574E-2</v>
+      </c>
+      <c r="L28" s="26">
+        <v>4.1481915355332605E-2</v>
+      </c>
+      <c r="M28" s="26">
+        <v>4.0884179983224668E-2</v>
+      </c>
+      <c r="N28" s="26">
+        <v>3.8822816753579674E-2</v>
+      </c>
+      <c r="O28" s="26">
+        <v>3.4778779070395574E-2</v>
+      </c>
+      <c r="P28" s="48">
+        <v>2.9841415875747242E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D29" s="60"/>
+      <c r="E29" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="43">
+        <v>1</v>
+      </c>
+      <c r="I29" s="49">
+        <v>0.43290649023408723</v>
+      </c>
+      <c r="J29" s="50">
+        <v>0.44270157956346629</v>
+      </c>
+      <c r="K29" s="50">
+        <v>0.43700779627864206</v>
+      </c>
+      <c r="L29" s="50">
+        <v>0.42115097219368908</v>
+      </c>
+      <c r="M29" s="50">
+        <v>0.38398409453487392</v>
+      </c>
+      <c r="N29" s="50">
+        <v>0.32997249939716844</v>
+      </c>
+      <c r="O29" s="50">
+        <v>0.27653309223744926</v>
+      </c>
+      <c r="P29" s="51">
+        <v>0.22563596863358948</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D30" s="60"/>
+      <c r="E30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="23">
+        <v>1</v>
+      </c>
+      <c r="I30" s="25">
+        <v>2.4944602281420009E-2</v>
+      </c>
+      <c r="J30" s="26">
+        <v>2.5509007327646552E-2</v>
+      </c>
+      <c r="K30" s="26">
+        <v>2.5180924559842038E-2</v>
+      </c>
+      <c r="L30" s="26">
+        <v>2.4267234931322702E-2</v>
+      </c>
+      <c r="M30" s="26">
+        <v>2.2125633910880578E-2</v>
+      </c>
+      <c r="N30" s="26">
+        <v>1.901341963438264E-2</v>
+      </c>
+      <c r="O30" s="26">
+        <v>1.5934175530111408E-2</v>
+      </c>
+      <c r="P30" s="48">
+        <v>1.3001420918647772E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D31" s="60"/>
+      <c r="E31" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="43">
+        <v>1</v>
+      </c>
+      <c r="I31" s="49">
+        <v>3.638539169699493E-2</v>
+      </c>
+      <c r="J31" s="50">
+        <v>3.500721133687304E-2</v>
+      </c>
+      <c r="K31" s="50">
+        <v>2.9217688019276274E-2</v>
+      </c>
+      <c r="L31" s="50">
+        <v>3.3821014465619852E-2</v>
+      </c>
+      <c r="M31" s="50">
+        <v>5.8599209810369333E-2</v>
+      </c>
+      <c r="N31" s="50">
+        <v>0.10951512246093077</v>
+      </c>
+      <c r="O31" s="50">
+        <v>0.17480089720619413</v>
+      </c>
+      <c r="P31" s="51">
+        <v>0.24365820632430502</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D32" s="60"/>
+      <c r="E32" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="43">
+        <v>1</v>
+      </c>
+      <c r="I32" s="49">
+        <v>0.10288236971605716</v>
+      </c>
+      <c r="J32" s="50">
+        <v>8.1917460167846359E-2</v>
+      </c>
+      <c r="K32" s="50">
+        <v>8.9395888673953885E-2</v>
+      </c>
+      <c r="L32" s="50">
+        <v>0.10012790443325413</v>
+      </c>
+      <c r="M32" s="50">
+        <v>0.11834523415808018</v>
+      </c>
+      <c r="N32" s="50">
+        <v>0.14248412543489994</v>
+      </c>
+      <c r="O32" s="50">
+        <v>0.17260530613985245</v>
+      </c>
+      <c r="P32" s="51">
+        <v>0.20606197555747177</v>
+      </c>
+    </row>
+    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D33" s="60"/>
+      <c r="E33" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="43">
+        <v>1</v>
+      </c>
+      <c r="I33" s="49">
+        <v>5.4111527860738156E-5</v>
+      </c>
+      <c r="J33" s="50">
+        <v>5.3192705911217035E-5</v>
+      </c>
+      <c r="K33" s="50">
+        <v>5.7230300281677974E-5</v>
+      </c>
+      <c r="L33" s="50">
+        <v>9.1081488583802855E-5</v>
+      </c>
+      <c r="M33" s="50">
+        <v>2.9773481638115541E-4</v>
+      </c>
+      <c r="N33" s="50">
+        <v>8.0420604209486852E-4</v>
+      </c>
+      <c r="O33" s="50">
+        <v>1.441441284653545E-3</v>
+      </c>
+      <c r="P33" s="51">
+        <v>2.1041191212510546E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D34" s="60"/>
+      <c r="E34" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="41"/>
+      <c r="G34" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="43">
+        <v>1</v>
+      </c>
+      <c r="I34" s="49">
+        <v>1.2957188037907301E-3</v>
+      </c>
+      <c r="J34" s="50">
+        <v>1.5593952872995222E-3</v>
+      </c>
+      <c r="K34" s="50">
+        <v>1.7017915706400845E-3</v>
+      </c>
+      <c r="L34" s="50">
+        <v>1.9060608658553284E-3</v>
+      </c>
+      <c r="M34" s="50">
+        <v>2.2527887113808669E-3</v>
+      </c>
+      <c r="N34" s="50">
+        <v>2.7123115433636854E-3</v>
+      </c>
+      <c r="O34" s="50">
+        <v>3.2857725872935625E-3</v>
+      </c>
+      <c r="P34" s="51">
+        <v>3.9225328618905956E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D35" s="60"/>
+      <c r="E35" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="43">
+        <v>1</v>
+      </c>
+      <c r="I35" s="49">
+        <v>9.1258830749058398E-4</v>
+      </c>
+      <c r="J35" s="50">
+        <v>0</v>
+      </c>
+      <c r="K35" s="50">
+        <v>0</v>
+      </c>
+      <c r="L35" s="50">
+        <v>0</v>
+      </c>
+      <c r="M35" s="50">
+        <v>0</v>
+      </c>
+      <c r="N35" s="50">
+        <v>0</v>
+      </c>
+      <c r="O35" s="50">
+        <v>0</v>
+      </c>
+      <c r="P35" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:16" x14ac:dyDescent="0.25">
+      <c r="D36" s="61"/>
+      <c r="E36" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="65">
+        <v>1</v>
+      </c>
+      <c r="I36" s="52">
+        <v>0</v>
+      </c>
+      <c r="J36" s="53">
+        <v>0</v>
+      </c>
+      <c r="K36" s="53">
+        <v>0</v>
+      </c>
+      <c r="L36" s="53">
+        <v>0</v>
+      </c>
+      <c r="M36" s="53">
+        <v>0</v>
+      </c>
+      <c r="N36" s="53">
+        <v>0</v>
+      </c>
+      <c r="O36" s="53">
+        <v>0</v>
+      </c>
+      <c r="P36" s="54">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AE288"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H154" sqref="H154"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A236" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D285" sqref="D285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10032,1114 +11140,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B9DC9D-38B5-4D3B-BABA-1E63DDFBA5A1}">
-  <dimension ref="D8:P36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:P36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D8" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="59">
-        <v>1</v>
-      </c>
-      <c r="I8" s="45">
-        <v>0.70492284759636947</v>
-      </c>
-      <c r="J8" s="46">
-        <v>0.71027709227023539</v>
-      </c>
-      <c r="K8" s="46">
-        <v>0.71018283052707665</v>
-      </c>
-      <c r="L8" s="46">
-        <v>0.71320579170785603</v>
-      </c>
-      <c r="M8" s="46">
-        <v>0.71486629778146171</v>
-      </c>
-      <c r="N8" s="46">
-        <v>0.71503401741990957</v>
-      </c>
-      <c r="O8" s="46">
-        <v>0.71399693928190033</v>
-      </c>
-      <c r="P8" s="47">
-        <v>0.71196823116894092</v>
-      </c>
-    </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D9" s="60"/>
-      <c r="E9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="23">
-        <v>1</v>
-      </c>
-      <c r="I9" s="25">
-        <v>6.6022474682462001E-2</v>
-      </c>
-      <c r="J9" s="26">
-        <v>6.6523948687212134E-2</v>
-      </c>
-      <c r="K9" s="26">
-        <v>6.651512021247559E-2</v>
-      </c>
-      <c r="L9" s="26">
-        <v>6.6798248186983156E-2</v>
-      </c>
-      <c r="M9" s="26">
-        <v>6.6953769774315053E-2</v>
-      </c>
-      <c r="N9" s="26">
-        <v>6.6969478253081111E-2</v>
-      </c>
-      <c r="O9" s="26">
-        <v>6.6872346396248949E-2</v>
-      </c>
-      <c r="P9" s="48">
-        <v>6.6682339318903286E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D10" s="60"/>
-      <c r="E10" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="43">
-        <v>1</v>
-      </c>
-      <c r="I10" s="49">
-        <v>6.6920156894449958E-3</v>
-      </c>
-      <c r="J10" s="50">
-        <v>6.929791145634928E-3</v>
-      </c>
-      <c r="K10" s="50">
-        <v>6.77249243782959E-3</v>
-      </c>
-      <c r="L10" s="50">
-        <v>6.6178805784550977E-3</v>
-      </c>
-      <c r="M10" s="50">
-        <v>6.5021617867783779E-3</v>
-      </c>
-      <c r="N10" s="50">
-        <v>6.4218783098451155E-3</v>
-      </c>
-      <c r="O10" s="50">
-        <v>6.3682683038996874E-3</v>
-      </c>
-      <c r="P10" s="51">
-        <v>6.3368678974272319E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D11" s="60"/>
-      <c r="E11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="23">
-        <v>1</v>
-      </c>
-      <c r="I11" s="25">
-        <v>3.8560214180194803E-4</v>
-      </c>
-      <c r="J11" s="26">
-        <v>3.9930305486456775E-4</v>
-      </c>
-      <c r="K11" s="26">
-        <v>3.9023931062856949E-4</v>
-      </c>
-      <c r="L11" s="26">
-        <v>3.8133038589056872E-4</v>
-      </c>
-      <c r="M11" s="26">
-        <v>3.7466252735765223E-4</v>
-      </c>
-      <c r="N11" s="26">
-        <v>3.7003649506881571E-4</v>
-      </c>
-      <c r="O11" s="26">
-        <v>3.6694742085352695E-4</v>
-      </c>
-      <c r="P11" s="48">
-        <v>3.6513809096681913E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D12" s="61"/>
-      <c r="E12" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="65">
-        <v>1</v>
-      </c>
-      <c r="I12" s="52">
-        <v>0.28838513671418559</v>
-      </c>
-      <c r="J12" s="53">
-        <v>0.28279311658412976</v>
-      </c>
-      <c r="K12" s="53">
-        <v>0.28304467703509384</v>
-      </c>
-      <c r="L12" s="53">
-        <v>0.28017632771368889</v>
-      </c>
-      <c r="M12" s="53">
-        <v>0.27863154043175997</v>
-      </c>
-      <c r="N12" s="53">
-        <v>0.27854410427024534</v>
-      </c>
-      <c r="O12" s="53">
-        <v>0.27963479241419981</v>
-      </c>
-      <c r="P12" s="54">
-        <v>0.28169490093363186</v>
-      </c>
-    </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D13" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="59">
-        <v>1</v>
-      </c>
-      <c r="I13" s="45">
-        <v>0.94914717262718429</v>
-      </c>
-      <c r="J13" s="46">
-        <v>0.94900036088054851</v>
-      </c>
-      <c r="K13" s="46">
-        <v>0.94207287924935468</v>
-      </c>
-      <c r="L13" s="46">
-        <v>0.93664116240507755</v>
-      </c>
-      <c r="M13" s="46">
-        <v>0.96537160286355184</v>
-      </c>
-      <c r="N13" s="46">
-        <v>0.99584958281549263</v>
-      </c>
-      <c r="O13" s="46">
-        <v>0.99970556052374615</v>
-      </c>
-      <c r="P13" s="47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D14" s="61"/>
-      <c r="E14" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="65">
-        <v>1</v>
-      </c>
-      <c r="I14" s="52">
-        <v>5.0852827372815664E-2</v>
-      </c>
-      <c r="J14" s="53">
-        <v>5.0999639119451462E-2</v>
-      </c>
-      <c r="K14" s="53">
-        <v>5.7927120750645336E-2</v>
-      </c>
-      <c r="L14" s="53">
-        <v>6.335883759492239E-2</v>
-      </c>
-      <c r="M14" s="53">
-        <v>3.4628397136448101E-2</v>
-      </c>
-      <c r="N14" s="53">
-        <v>4.150417184507307E-3</v>
-      </c>
-      <c r="O14" s="53">
-        <v>2.9443947625379857E-4</v>
-      </c>
-      <c r="P14" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="59">
-        <v>1</v>
-      </c>
-      <c r="I15" s="45">
-        <v>0.73862618670258562</v>
-      </c>
-      <c r="J15" s="46">
-        <v>0.73892113329867415</v>
-      </c>
-      <c r="K15" s="46">
-        <v>0.74889110966438177</v>
-      </c>
-      <c r="L15" s="46">
-        <v>0.74775912300544867</v>
-      </c>
-      <c r="M15" s="46">
-        <v>0.73576050160718331</v>
-      </c>
-      <c r="N15" s="46">
-        <v>0.70077220806192775</v>
-      </c>
-      <c r="O15" s="46">
-        <v>0.48247290434054141</v>
-      </c>
-      <c r="P15" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D16" s="61"/>
-      <c r="E16" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="65">
-        <v>1</v>
-      </c>
-      <c r="I16" s="52">
-        <v>0.26137381329741433</v>
-      </c>
-      <c r="J16" s="53">
-        <v>0.26107886670132585</v>
-      </c>
-      <c r="K16" s="53">
-        <v>0.25110889033561812</v>
-      </c>
-      <c r="L16" s="53">
-        <v>0.25224087699455128</v>
-      </c>
-      <c r="M16" s="53">
-        <v>0.26423949839281657</v>
-      </c>
-      <c r="N16" s="53">
-        <v>0.29922779193807231</v>
-      </c>
-      <c r="O16" s="53">
-        <v>0.51752709565945865</v>
-      </c>
-      <c r="P16" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D17" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="59">
-        <v>1</v>
-      </c>
-      <c r="I17" s="45">
-        <v>2.3815208477444158E-2</v>
-      </c>
-      <c r="J17" s="46">
-        <v>2.2291811973852816E-2</v>
-      </c>
-      <c r="K17" s="46">
-        <v>1.8488966144340289E-2</v>
-      </c>
-      <c r="L17" s="46">
-        <v>1.3679255515304019E-2</v>
-      </c>
-      <c r="M17" s="46">
-        <v>9.258820007557551E-3</v>
-      </c>
-      <c r="N17" s="46">
-        <v>5.3838956440186592E-3</v>
-      </c>
-      <c r="O17" s="46">
-        <v>3.4997362435408037E-3</v>
-      </c>
-      <c r="P17" s="47">
-        <v>1.6243768554304598E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D18" s="60"/>
-      <c r="E18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="23">
-        <v>1</v>
-      </c>
-      <c r="I18" s="25">
-        <v>2.230512181752852E-3</v>
-      </c>
-      <c r="J18" s="26">
-        <v>2.0878321601977834E-3</v>
-      </c>
-      <c r="K18" s="26">
-        <v>1.7316608524349532E-3</v>
-      </c>
-      <c r="L18" s="26">
-        <v>1.2811874434395048E-3</v>
-      </c>
-      <c r="M18" s="26">
-        <v>8.6717321139867303E-4</v>
-      </c>
-      <c r="N18" s="26">
-        <v>5.042510894096747E-4</v>
-      </c>
-      <c r="O18" s="26">
-        <v>3.2778232160063326E-4</v>
-      </c>
-      <c r="P18" s="48">
-        <v>1.5213775546943573E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D19" s="60"/>
-      <c r="E19" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="43">
-        <v>1</v>
-      </c>
-      <c r="I19" s="49">
-        <v>2.0733084888629265E-3</v>
-      </c>
-      <c r="J19" s="50">
-        <v>4.6156996642390223E-3</v>
-      </c>
-      <c r="K19" s="50">
-        <v>4.1776372247926703E-3</v>
-      </c>
-      <c r="L19" s="50">
-        <v>3.3657996919672878E-3</v>
-      </c>
-      <c r="M19" s="50">
-        <v>2.610790942060398E-3</v>
-      </c>
-      <c r="N19" s="50">
-        <v>2.14961401171441E-3</v>
-      </c>
-      <c r="O19" s="50">
-        <v>2.1258077344612158E-3</v>
-      </c>
-      <c r="P19" s="51">
-        <v>2.0961786211324105E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D20" s="60"/>
-      <c r="E20" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="23">
-        <v>1</v>
-      </c>
-      <c r="I20" s="25">
-        <v>1.1946657494881176E-4</v>
-      </c>
-      <c r="J20" s="26">
-        <v>2.6596226892479228E-4</v>
-      </c>
-      <c r="K20" s="26">
-        <v>2.4072057453367998E-4</v>
-      </c>
-      <c r="L20" s="26">
-        <v>1.9394150138439997E-4</v>
-      </c>
-      <c r="M20" s="26">
-        <v>1.5043697232262589E-4</v>
-      </c>
-      <c r="N20" s="26">
-        <v>1.2386339265042863E-4</v>
-      </c>
-      <c r="O20" s="26">
-        <v>1.2249164579220749E-4</v>
-      </c>
-      <c r="P20" s="48">
-        <v>1.2078437998628593E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D21" s="60"/>
-      <c r="E21" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="43">
-        <v>1</v>
-      </c>
-      <c r="I21" s="49">
-        <v>0.92987932910492899</v>
-      </c>
-      <c r="J21" s="50">
-        <v>0.92789147783490933</v>
-      </c>
-      <c r="K21" s="50">
-        <v>0.93587746814734207</v>
-      </c>
-      <c r="L21" s="50">
-        <v>0.94391982472504832</v>
-      </c>
-      <c r="M21" s="50">
-        <v>0.95160712503823763</v>
-      </c>
-      <c r="N21" s="50">
-        <v>0.95939252769919714</v>
-      </c>
-      <c r="O21" s="50">
-        <v>0.9647057933775387</v>
-      </c>
-      <c r="P21" s="51">
-        <v>0.96976806311371933</v>
-      </c>
-    </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D22" s="60"/>
-      <c r="E22" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="43">
-        <v>1</v>
-      </c>
-      <c r="I22" s="49">
-        <v>3.7747992514573081E-5</v>
-      </c>
-      <c r="J22" s="50">
-        <v>3.9537071580347435E-5</v>
-      </c>
-      <c r="K22" s="50">
-        <v>3.1040136722672816E-5</v>
-      </c>
-      <c r="L22" s="50">
-        <v>2.2560142302436061E-5</v>
-      </c>
-      <c r="M22" s="50">
-        <v>1.3904588350572295E-5</v>
-      </c>
-      <c r="N22" s="50">
-        <v>6.5737431550899382E-6</v>
-      </c>
-      <c r="O22" s="50">
-        <v>5.6721819182184823E-6</v>
-      </c>
-      <c r="P22" s="51">
-        <v>4.8472784147460675E-6</v>
-      </c>
-    </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D23" s="60"/>
-      <c r="E23" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="43">
-        <v>1</v>
-      </c>
-      <c r="I23" s="49">
-        <v>3.934284519831379E-2</v>
-      </c>
-      <c r="J23" s="50">
-        <v>4.0960406157239941E-2</v>
-      </c>
-      <c r="K23" s="50">
-        <v>3.7724721460420177E-2</v>
-      </c>
-      <c r="L23" s="50">
-        <v>3.5984294670166381E-2</v>
-      </c>
-      <c r="M23" s="50">
-        <v>3.4079328130290895E-2</v>
-      </c>
-      <c r="N23" s="50">
-        <v>3.1145664652910007E-2</v>
-      </c>
-      <c r="O23" s="50">
-        <v>2.7748944186360175E-2</v>
-      </c>
-      <c r="P23" s="51">
-        <v>2.4609632511665785E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D24" s="60"/>
-      <c r="E24" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="43">
-        <v>1</v>
-      </c>
-      <c r="I24" s="49">
-        <v>4.1598287751059542E-3</v>
-      </c>
-      <c r="J24" s="50">
-        <v>3.5005514914599922E-3</v>
-      </c>
-      <c r="K24" s="50">
-        <v>3.1642680553171758E-3</v>
-      </c>
-      <c r="L24" s="50">
-        <v>2.6942016095793833E-3</v>
-      </c>
-      <c r="M24" s="50">
-        <v>2.2754449877230663E-3</v>
-      </c>
-      <c r="N24" s="50">
-        <v>1.9217242490046254E-3</v>
-      </c>
-      <c r="O24" s="50">
-        <v>1.9140462761810593E-3</v>
-      </c>
-      <c r="P24" s="51">
-        <v>1.8969016196372945E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D25" s="60"/>
-      <c r="E25" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H25" s="43">
-        <v>1</v>
-      </c>
-      <c r="I25" s="49">
-        <v>6.9173196282955177E-4</v>
-      </c>
-      <c r="J25" s="50">
-        <v>7.0051580671846349E-4</v>
-      </c>
-      <c r="K25" s="50">
-        <v>5.3589883106496894E-4</v>
-      </c>
-      <c r="L25" s="50">
-        <v>3.3406364563222629E-4</v>
-      </c>
-      <c r="M25" s="50">
-        <v>1.5458630577989198E-4</v>
-      </c>
-      <c r="N25" s="50">
-        <v>0</v>
-      </c>
-      <c r="O25" s="50">
-        <v>0</v>
-      </c>
-      <c r="P25" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D26" s="61"/>
-      <c r="E26" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="65">
-        <v>1</v>
-      </c>
-      <c r="I26" s="52">
-        <v>0</v>
-      </c>
-      <c r="J26" s="53">
-        <v>0</v>
-      </c>
-      <c r="K26" s="53">
-        <v>0</v>
-      </c>
-      <c r="L26" s="53">
-        <v>0</v>
-      </c>
-      <c r="M26" s="53">
-        <v>0</v>
-      </c>
-      <c r="N26" s="53">
-        <v>0</v>
-      </c>
-      <c r="O26" s="53">
-        <v>0</v>
-      </c>
-      <c r="P26" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D27" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="59">
-        <v>1</v>
-      </c>
-      <c r="I27" s="45">
-        <v>0.42556332971371874</v>
-      </c>
-      <c r="J27" s="46">
-        <v>0.4387611609386034</v>
-      </c>
-      <c r="K27" s="46">
-        <v>0.44261960515720589</v>
-      </c>
-      <c r="L27" s="46">
-        <v>0.44290296655299799</v>
-      </c>
-      <c r="M27" s="46">
-        <v>0.4365209379689145</v>
-      </c>
-      <c r="N27" s="46">
-        <v>0.41451173512154232</v>
-      </c>
-      <c r="O27" s="46">
-        <v>0.37133349054455705</v>
-      </c>
-      <c r="P27" s="47">
-        <v>0.31861719750149203</v>
-      </c>
-    </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D28" s="60"/>
-      <c r="E28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="23">
-        <v>1</v>
-      </c>
-      <c r="I28" s="25">
-        <v>3.9857899708616182E-2</v>
-      </c>
-      <c r="J28" s="26">
-        <v>4.1093997362252291E-2</v>
-      </c>
-      <c r="K28" s="26">
-        <v>4.1455375967875574E-2</v>
-      </c>
-      <c r="L28" s="26">
-        <v>4.1481915355332605E-2</v>
-      </c>
-      <c r="M28" s="26">
-        <v>4.0884179983224668E-2</v>
-      </c>
-      <c r="N28" s="26">
-        <v>3.8822816753579674E-2</v>
-      </c>
-      <c r="O28" s="26">
-        <v>3.4778779070395574E-2</v>
-      </c>
-      <c r="P28" s="48">
-        <v>2.9841415875747242E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D29" s="60"/>
-      <c r="E29" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="43">
-        <v>1</v>
-      </c>
-      <c r="I29" s="49">
-        <v>0.43290649023408723</v>
-      </c>
-      <c r="J29" s="50">
-        <v>0.44270157956346629</v>
-      </c>
-      <c r="K29" s="50">
-        <v>0.43700779627864206</v>
-      </c>
-      <c r="L29" s="50">
-        <v>0.42115097219368908</v>
-      </c>
-      <c r="M29" s="50">
-        <v>0.38398409453487392</v>
-      </c>
-      <c r="N29" s="50">
-        <v>0.32997249939716844</v>
-      </c>
-      <c r="O29" s="50">
-        <v>0.27653309223744926</v>
-      </c>
-      <c r="P29" s="51">
-        <v>0.22563596863358948</v>
-      </c>
-    </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D30" s="60"/>
-      <c r="E30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="23">
-        <v>1</v>
-      </c>
-      <c r="I30" s="25">
-        <v>2.4944602281420009E-2</v>
-      </c>
-      <c r="J30" s="26">
-        <v>2.5509007327646552E-2</v>
-      </c>
-      <c r="K30" s="26">
-        <v>2.5180924559842038E-2</v>
-      </c>
-      <c r="L30" s="26">
-        <v>2.4267234931322702E-2</v>
-      </c>
-      <c r="M30" s="26">
-        <v>2.2125633910880578E-2</v>
-      </c>
-      <c r="N30" s="26">
-        <v>1.901341963438264E-2</v>
-      </c>
-      <c r="O30" s="26">
-        <v>1.5934175530111408E-2</v>
-      </c>
-      <c r="P30" s="48">
-        <v>1.3001420918647772E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D31" s="60"/>
-      <c r="E31" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="43">
-        <v>1</v>
-      </c>
-      <c r="I31" s="49">
-        <v>3.638539169699493E-2</v>
-      </c>
-      <c r="J31" s="50">
-        <v>3.500721133687304E-2</v>
-      </c>
-      <c r="K31" s="50">
-        <v>2.9217688019276274E-2</v>
-      </c>
-      <c r="L31" s="50">
-        <v>3.3821014465619852E-2</v>
-      </c>
-      <c r="M31" s="50">
-        <v>5.8599209810369333E-2</v>
-      </c>
-      <c r="N31" s="50">
-        <v>0.10951512246093077</v>
-      </c>
-      <c r="O31" s="50">
-        <v>0.17480089720619413</v>
-      </c>
-      <c r="P31" s="51">
-        <v>0.24365820632430502</v>
-      </c>
-    </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D32" s="60"/>
-      <c r="E32" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="43">
-        <v>1</v>
-      </c>
-      <c r="I32" s="49">
-        <v>0.10288236971605716</v>
-      </c>
-      <c r="J32" s="50">
-        <v>8.1917460167846359E-2</v>
-      </c>
-      <c r="K32" s="50">
-        <v>8.9395888673953885E-2</v>
-      </c>
-      <c r="L32" s="50">
-        <v>0.10012790443325413</v>
-      </c>
-      <c r="M32" s="50">
-        <v>0.11834523415808018</v>
-      </c>
-      <c r="N32" s="50">
-        <v>0.14248412543489994</v>
-      </c>
-      <c r="O32" s="50">
-        <v>0.17260530613985245</v>
-      </c>
-      <c r="P32" s="51">
-        <v>0.20606197555747177</v>
-      </c>
-    </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D33" s="60"/>
-      <c r="E33" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="43">
-        <v>1</v>
-      </c>
-      <c r="I33" s="49">
-        <v>5.4111527860738156E-5</v>
-      </c>
-      <c r="J33" s="50">
-        <v>5.3192705911217035E-5</v>
-      </c>
-      <c r="K33" s="50">
-        <v>5.7230300281677974E-5</v>
-      </c>
-      <c r="L33" s="50">
-        <v>9.1081488583802855E-5</v>
-      </c>
-      <c r="M33" s="50">
-        <v>2.9773481638115541E-4</v>
-      </c>
-      <c r="N33" s="50">
-        <v>8.0420604209486852E-4</v>
-      </c>
-      <c r="O33" s="50">
-        <v>1.441441284653545E-3</v>
-      </c>
-      <c r="P33" s="51">
-        <v>2.1041191212510546E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D34" s="60"/>
-      <c r="E34" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="43">
-        <v>1</v>
-      </c>
-      <c r="I34" s="49">
-        <v>1.2957188037907301E-3</v>
-      </c>
-      <c r="J34" s="50">
-        <v>1.5593952872995222E-3</v>
-      </c>
-      <c r="K34" s="50">
-        <v>1.7017915706400845E-3</v>
-      </c>
-      <c r="L34" s="50">
-        <v>1.9060608658553284E-3</v>
-      </c>
-      <c r="M34" s="50">
-        <v>2.2527887113808669E-3</v>
-      </c>
-      <c r="N34" s="50">
-        <v>2.7123115433636854E-3</v>
-      </c>
-      <c r="O34" s="50">
-        <v>3.2857725872935625E-3</v>
-      </c>
-      <c r="P34" s="51">
-        <v>3.9225328618905956E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D35" s="60"/>
-      <c r="E35" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="43">
-        <v>1</v>
-      </c>
-      <c r="I35" s="49">
-        <v>9.1258830749058398E-4</v>
-      </c>
-      <c r="J35" s="50">
-        <v>0</v>
-      </c>
-      <c r="K35" s="50">
-        <v>0</v>
-      </c>
-      <c r="L35" s="50">
-        <v>0</v>
-      </c>
-      <c r="M35" s="50">
-        <v>0</v>
-      </c>
-      <c r="N35" s="50">
-        <v>0</v>
-      </c>
-      <c r="O35" s="50">
-        <v>0</v>
-      </c>
-      <c r="P35" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D36" s="61"/>
-      <c r="E36" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="63"/>
-      <c r="G36" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="65">
-        <v>1</v>
-      </c>
-      <c r="I36" s="52">
-        <v>0</v>
-      </c>
-      <c r="J36" s="53">
-        <v>0</v>
-      </c>
-      <c r="K36" s="53">
-        <v>0</v>
-      </c>
-      <c r="L36" s="53">
-        <v>0</v>
-      </c>
-      <c r="M36" s="53">
-        <v>0</v>
-      </c>
-      <c r="N36" s="53">
-        <v>0</v>
-      </c>
-      <c r="O36" s="53">
-        <v>0</v>
-      </c>
-      <c r="P36" s="54">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429C857E-7E9C-40EC-8492-D79139CDAA51}">
   <dimension ref="B3:P54"/>
